--- a/src/experiment/results/wilcoxon/diabetes/outlier/PinFSSVM_auc_folds.xlsx
+++ b/src/experiment/results/wilcoxon/diabetes/outlier/PinFSSVM_auc_folds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>Best_B</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best_cpu_threads</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -506,6 +511,9 @@
       <c r="H2" t="n">
         <v>4</v>
       </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -538,6 +546,9 @@
       <c r="H3" t="n">
         <v>4</v>
       </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -570,6 +581,9 @@
       <c r="H4" t="n">
         <v>4</v>
       </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -602,6 +616,9 @@
       <c r="H5" t="n">
         <v>4</v>
       </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -634,6 +651,9 @@
       <c r="H6" t="n">
         <v>4</v>
       </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -666,6 +686,9 @@
       <c r="H7" t="n">
         <v>4</v>
       </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -698,6 +721,9 @@
       <c r="H8" t="n">
         <v>4</v>
       </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -730,6 +756,9 @@
       <c r="H9" t="n">
         <v>4</v>
       </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -762,6 +791,9 @@
       <c r="H10" t="n">
         <v>4</v>
       </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -793,6 +825,9 @@
       </c>
       <c r="H11" t="n">
         <v>4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
